--- a/Btree.xlsx
+++ b/Btree.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Btree</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Parent Loc (int)</t>
   </si>
   <si>
-    <t>Pointer (int)</t>
-  </si>
-  <si>
     <t>Number of Objects (int)</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>SIZE =  6 x int  = 6 x 32 = 192 bits</t>
+  </si>
+  <si>
+    <t>Object[]</t>
+  </si>
+  <si>
+    <t>Pointer[] (int[])</t>
   </si>
 </sst>
 </file>
@@ -231,10 +234,12 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,8 +249,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,7 +562,7 @@
   <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,7 @@
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
@@ -578,165 +581,163 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
